--- a/biology/Médecine/Pierre_Satgé/Pierre_Satgé.xlsx
+++ b/biology/Médecine/Pierre_Satgé/Pierre_Satgé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_Satg%C3%A9</t>
+          <t>Pierre_Satgé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Satgé (né le 15 janvier 1913 à Paris 16e et mort le 14 mars 2005 à Paris 15e) est un pédiatre français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_Satg%C3%A9</t>
+          <t>Pierre_Satgé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Reçu au concours de l'Internat des hôpitaux de Paris en 1944, il devint un élève des  pédiatres Robert Debré et Marcel Lelong (1892-1973). 
 En 1962, il est nommé professeur de pédiatrie à la faculté de médecine de Dakar, au Sénégal. Il dirige alors le service pédiatrie de l'hôpital Le Dantec et l'Institut de pédiatrie sociale, fondé en 1960. Il s'occupe notamment des problèmes de nutrition et des conditions de vie des enfants (en relation avec Pierre Cantrelle, chercheur à l'ORSTOM).
